--- a/Content/Contoh Data Base LGI.xlsx
+++ b/Content/Contoh Data Base LGI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>BRANCHID</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>6282211055900</t>
+  </si>
+  <si>
+    <t>HomePhone</t>
   </si>
 </sst>
 </file>
@@ -270,7 +273,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +283,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -302,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -310,12 +322,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -329,6 +356,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -644,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -656,7 +684,7 @@
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5.140625" customWidth="1"/>
     <col min="8" max="8" width="28.7109375" customWidth="1"/>
@@ -686,7 +714,7 @@
     <col min="32" max="32" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1">
+    <row r="1" spans="1:33" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,12 +811,17 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>25861</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
@@ -799,11 +832,13 @@
       <c r="AB2" s="2"/>
       <c r="AE2" s="5"/>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33">
       <c r="E3" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>25862</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
@@ -814,11 +849,13 @@
       <c r="AB3" s="2"/>
       <c r="AE3" s="5"/>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:33">
       <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>25863</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -829,11 +866,13 @@
       <c r="AB4" s="2"/>
       <c r="AE4" s="5"/>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:33">
       <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>25864</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
@@ -844,11 +883,13 @@
       <c r="AB5" s="2"/>
       <c r="AE5" s="5"/>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:33">
       <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>25865</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -859,11 +900,13 @@
       <c r="AB6" s="2"/>
       <c r="AE6" s="5"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:33">
       <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>25866</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
@@ -874,11 +917,13 @@
       <c r="AB7" s="2"/>
       <c r="AE7" s="5"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:33">
       <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>25867</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
@@ -889,11 +934,13 @@
       <c r="AB8" s="2"/>
       <c r="AE8" s="5"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:33">
       <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>25868</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
@@ -904,11 +951,13 @@
       <c r="AB9" s="2"/>
       <c r="AE9" s="5"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:33">
       <c r="E10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>25869</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -919,11 +968,13 @@
       <c r="AB10" s="2"/>
       <c r="AE10" s="5"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:33">
       <c r="E11" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>25870</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -934,11 +985,13 @@
       <c r="AB11" s="2"/>
       <c r="AE11" s="5"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:33">
       <c r="E12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>25871</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
@@ -949,13 +1002,15 @@
       <c r="AB12" s="2"/>
       <c r="AE12" s="5"/>
     </row>
-    <row r="13" spans="1:32" s="7" customFormat="1">
+    <row r="13" spans="1:33" s="7" customFormat="1">
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="2">
+        <v>25872</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -983,25 +1038,34 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:33">
       <c r="E14" t="s">
         <v>46</v>
       </c>
+      <c r="F14" s="2">
+        <v>25873</v>
+      </c>
       <c r="Z14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:33">
       <c r="E15" t="s">
         <v>47</v>
       </c>
+      <c r="F15" s="2">
+        <v>25874</v>
+      </c>
       <c r="Z15" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:33">
       <c r="E16" t="s">
         <v>48</v>
+      </c>
+      <c r="F16" s="2">
+        <v>25875</v>
       </c>
       <c r="Z16" t="s">
         <v>70</v>
